--- a/Data/Donanemab_.xlsx
+++ b/Data/Donanemab_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC4D92-C4FE-4D46-987B-6F2A09221AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13520" activeTab="2"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,20 @@
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -74,14 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,345 +103,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -436,320 +126,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1007,32 +408,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H9"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.0673076923077" customWidth="1"/>
-    <col min="2" max="2" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.2692307692308" customWidth="1"/>
-    <col min="6" max="6" width="14.0673076923077" customWidth="1"/>
-    <col min="7" max="7" width="12.6923076923077"/>
+    <col min="1" max="1" width="11.07421875" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1054,11 +455,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -1072,21 +473,21 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">C2-1.96*D2/SQRT(E2)</f>
-        <v>104.755212830205</v>
+        <v>104.75521283020488</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="1">C2+1.96*D2/SQRT(E2)</f>
-        <v>107.084787169795</v>
+        <v>107.08478716979512</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1100,21 +501,21 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>104.838486930351</v>
+        <v>104.83848693035125</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>107.061513069649</v>
+        <v>107.06151306964875</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -1128,21 +529,21 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>103.571366630317</v>
+        <v>103.5713666303165</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>105.528633369683</v>
+        <v>105.52863336968349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1156,21 +557,21 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>102.87227588464</v>
+        <v>102.87227588463996</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>104.76772411536</v>
+        <v>104.76772411536002</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -1184,21 +585,21 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>99.5623494454379</v>
+        <v>99.562349445437889</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>103.057650554562</v>
+        <v>103.05765055456212</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1212,21 +613,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>97.2103361696718</v>
+        <v>97.210336169671777</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>100.549663830328</v>
+        <v>100.54966383032821</v>
       </c>
       <c r="H7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -1240,21 +641,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>95.2858797133842</v>
+        <v>95.285879713384219</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>98.6741202866158</v>
+        <v>98.674120286615789</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1268,44 +669,43 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>92.2568391825357</v>
+        <v>92.256839182535671</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>95.3831608174643</v>
+        <v>95.383160817464315</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.0673076923077" customWidth="1"/>
-    <col min="7" max="7" width="12.6923076923077"/>
-    <col min="17" max="18" width="12.6923076923077"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625"/>
+    <col min="17" max="18" width="12.69140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1327,11 +727,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:8">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -1345,21 +745,21 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">C2-1.96*D2/SQRT(E2)</f>
-        <v>3.54469026384783</v>
+        <v>3.5446902638478299</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="1">C2+1.96*D2/SQRT(E2)</f>
-        <v>3.89530973615217</v>
+        <v>3.8953097361521705</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:8">
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1373,21 +773,21 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>3.47648672594905</v>
+        <v>3.4764867259490497</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>3.80351327405095</v>
+        <v>3.8035132740509505</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:8">
+    <row r="4" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -1401,53 +801,53 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>3.77671093773341</v>
+        <v>3.7767109377334078</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>4.06328906226659</v>
+        <v>4.063289062266592</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:8">
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
         <v>3.89</v>
       </c>
       <c r="D5">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E5">
         <v>838</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.75255463467731</v>
+        <v>3.7525546346773115</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>4.02744536532269</v>
+        <v>4.0274453653226887</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="34" spans="1:8">
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D6">
         <v>2.9</v>
@@ -1457,21 +857,21 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>4.36396055791807</v>
+        <v>4.3639605579180651</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4.91603944208193</v>
+        <v>4.9160394420819342</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:8">
+    <row r="7" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1485,21 +885,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>4.8619490511148</v>
+        <v>4.8619490511147978</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>5.3980509488852</v>
+        <v>5.398050948885202</v>
       </c>
       <c r="H7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:8">
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -1513,21 +913,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>4.99271734320994</v>
+        <v>4.9927173432099439</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>5.50728265679006</v>
+        <v>5.5072826567900561</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:8">
+    <row r="9" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1541,41 +941,40 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5.55654017442981</v>
+        <v>5.5565401744298111</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>6.04345982557019</v>
+        <v>6.0434598255701886</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1597,11 +996,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:8">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -1615,21 +1014,21 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">C2-1.96*D2/SQRT(E2)</f>
-        <v>47.5322630673014</v>
+        <v>47.532263067301415</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="1">C2+1.96*D2/SQRT(E2)</f>
-        <v>48.8677369326986</v>
+        <v>48.867736932698591</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:8">
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1643,21 +1042,21 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>47.923382403312</v>
+        <v>47.923382403311997</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>49.196617596688</v>
+        <v>49.196617596688007</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:8">
+    <row r="4" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -1671,21 +1070,21 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>47.4090928274015</v>
+        <v>47.409092827401466</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>48.5109071725985</v>
+        <v>48.510907172598536</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:8">
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1699,21 +1098,21 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>47.4548821601176</v>
+        <v>47.454882160117641</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>48.5051178398824</v>
+        <v>48.505117839882352</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="34" spans="1:8">
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -1727,21 +1126,21 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>45.1387519946517</v>
+        <v>45.138751994651706</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>47.1012480053483</v>
+        <v>47.101248005348289</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:8">
+    <row r="7" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1755,21 +1154,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>44.1936847488557</v>
+        <v>44.193684748855695</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>46.0063152511443</v>
+        <v>46.006315251144308</v>
       </c>
       <c r="H7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:8">
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -1783,21 +1182,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>43.6383026871563</v>
+        <v>43.638302687156312</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>45.4216973128437</v>
+        <v>45.42169731284369</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:8">
+    <row r="9" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1811,42 +1210,41 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>42.4911449049174</v>
+        <v>42.491144904917356</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>44.1088550950826</v>
+        <v>44.108855095082639</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6923076923077"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="6" max="7" width="12.69140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1868,11 +1266,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:8">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -1886,77 +1284,77 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">C2-1.96*D2/SQRT(E2)</f>
-        <v>26.7046296939518</v>
+        <v>26.704629693951791</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="1">C2+1.96*D2/SQRT(E2)</f>
-        <v>28.1153703060482</v>
+        <v>28.115370306048209</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:8">
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
         <v>27.6</v>
       </c>
       <c r="D3">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E3">
         <v>570</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>26.9259970449333</v>
+        <v>26.925997044933336</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>28.2740029550667</v>
+        <v>28.274002955066667</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:8">
+    <row r="4" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4">
         <v>28.53</v>
       </c>
       <c r="D4">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="E4">
         <v>797</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>27.9204330296081</v>
+        <v>27.92043302960813</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>29.1395669703919</v>
+        <v>29.139566970391872</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:8">
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1970,21 +1368,21 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>28.5618620689655</v>
+        <v>28.561862068965517</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>29.7581379310345</v>
+        <v>29.758137931034483</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="34" spans="1:8">
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -1998,21 +1396,21 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>28.7645347996367</v>
+        <v>28.764534799636738</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>30.7754652003633</v>
+        <v>30.775465200363261</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:8">
+    <row r="7" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -2026,21 +1424,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>30.2223326635777</v>
+        <v>30.222332663577699</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>32.1176673364223</v>
+        <v>32.117667336422301</v>
       </c>
       <c r="H7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:8">
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -2054,21 +1452,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>31.7303489126322</v>
+        <v>31.730348912632248</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>33.7096510873677</v>
+        <v>33.709651087367746</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:8">
+    <row r="9" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -2082,41 +1480,40 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>33.6260529681797</v>
+        <v>33.626052968179671</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>35.4339470318203</v>
+        <v>35.433947031820331</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2138,11 +1535,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:8">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -2156,21 +1553,21 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">C2-1.96*D2/SQRT(E2)</f>
-        <v>22.8055112279356</v>
+        <v>22.805511227935582</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="1">C2+1.96*D2/SQRT(E2)</f>
-        <v>23.4144887720644</v>
+        <v>23.414488772064416</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:8">
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -2184,21 +1581,21 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>22.5737681467855</v>
+        <v>22.573768146785461</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>23.1862318532145</v>
+        <v>23.186231853214537</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:8">
+    <row r="4" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -2212,21 +1609,21 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>22.2532338249313</v>
+        <v>22.253233824931261</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>22.7867661750687</v>
+        <v>22.786766175068738</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:8">
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -2240,49 +1637,49 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.9364137931034</v>
+        <v>21.936413793103448</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>22.4635862068966</v>
+        <v>22.463586206896551</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="34" spans="1:8">
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E6">
         <v>429</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.5363145105783</v>
+        <v>21.536314510578308</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>22.4636854894217</v>
+        <v>22.463685489421692</v>
       </c>
       <c r="H6">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:8">
+    <row r="7" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -2296,21 +1693,21 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>20.8618965903975</v>
+        <v>20.861896590397453</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>21.7381034096025</v>
+        <v>21.738103409602548</v>
       </c>
       <c r="H7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:8">
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -2324,21 +1721,21 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>20.2683080095813</v>
+        <v>20.268308009581339</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>21.1516919904187</v>
+        <v>21.151691990418662</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:8">
+    <row r="9" spans="1:8" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -2352,18 +1749,18 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.3755493901063</v>
+        <v>19.375549390106325</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>20.2044506098937</v>
+        <v>20.204450609893673</v>
       </c>
       <c r="H9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Donanemab_.xlsx
+++ b/Data/Donanemab_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC4D92-C4FE-4D46-987B-6F2A09221AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC6016-15DF-4D0C-9428-BF2B02D1DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="17477" windowHeight="7269" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
